--- a/SIQ 1.3.xlsx
+++ b/SIQ 1.3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25714" windowHeight="13723"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25714" windowHeight="13723" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Revision_History" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="134">
   <si>
     <t>ID</t>
   </si>
@@ -86,10 +86,6 @@
   </si>
   <si>
     <t>Shall we add Next / Pervious Buttons for navigation</t>
-  </si>
-  <si>
-    <t>Add next Button for the second page 
-Add next / pervious for the other pages</t>
   </si>
   <si>
     <t>Where shall the user find the promos ?</t>
@@ -493,6 +489,74 @@
   </si>
   <si>
     <t>Change the SIQ ID and CRS ID</t>
+  </si>
+  <si>
+    <t>add new SIQ questions</t>
+  </si>
+  <si>
+    <t>Foodies_SIQ_019</t>
+  </si>
+  <si>
+    <t>Foodies_SIQ_020</t>
+  </si>
+  <si>
+    <t>Foodies_SIQ_021</t>
+  </si>
+  <si>
+    <t>Foodies_SIQ_022</t>
+  </si>
+  <si>
+    <t>Foodies_SIQ_023</t>
+  </si>
+  <si>
+    <t>Foodies_SIQ_024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">login page </t>
+  </si>
+  <si>
+    <t>What is the first page for the application ?</t>
+  </si>
+  <si>
+    <t>Add next Button for the pervious page 
+Add next / pervious for the other pages</t>
+  </si>
+  <si>
+    <t>What is the main content of delete users page ?</t>
+  </si>
+  <si>
+    <t>What is the content of add resturants form and constraints ?</t>
+  </si>
+  <si>
+    <t>What is the behaviour for making new order ?</t>
+  </si>
+  <si>
+    <t>What is the  main content for user account page  ? Where I can find it ?</t>
+  </si>
+  <si>
+    <t>UserID 
+loyality points</t>
+  </si>
+  <si>
+    <t>Search bar 
+UserID field 
+Search button
+Clear button 
+Delete button</t>
+  </si>
+  <si>
+    <t>Name of restaurants 
+Location 
+Menu</t>
+  </si>
+  <si>
+    <t>What if the admin tried to add restaurant already exist in the database?</t>
+  </si>
+  <si>
+    <t>Show a popup message says "this restaurant already added before "</t>
+  </si>
+  <si>
+    <t>Show a popup message contain restaurants phone number</t>
   </si>
 </sst>
 </file>
@@ -995,10 +1059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="16.75" x14ac:dyDescent="0.45"/>
@@ -1013,86 +1077,86 @@
   <sheetData>
     <row r="1" spans="1:4" s="7" customFormat="1" ht="41.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="D1" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="14">
         <v>0.1</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="14">
         <v>0.1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="14">
         <v>1.2</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="14">
         <v>1.2</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" s="14">
         <v>1.2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -1100,10 +1164,21 @@
         <v>1.3</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B8" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>49</v>
+      <c r="D8" s="12" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1113,11 +1188,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.3046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1125,7 +1200,7 @@
     <col min="1" max="1" width="20.84375" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.15234375" style="1" customWidth="1"/>
     <col min="3" max="3" width="60.15234375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="53.3046875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="56.765625" style="1" customWidth="1"/>
     <col min="5" max="5" width="32.15234375" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.3046875" style="1"/>
     <col min="7" max="7" width="23.3046875" style="1" customWidth="1"/>
@@ -1144,154 +1219,154 @@
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="5" customFormat="1" ht="34.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>14</v>
@@ -1300,161 +1375,249 @@
         <v>15</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>88</v>
-      </c>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A20" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A22" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A23" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1481,16 +1644,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="7" customFormat="1" ht="41.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="D1" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
@@ -1498,10 +1661,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="50.6" thickBot="1" x14ac:dyDescent="0.45">
@@ -1509,10 +1672,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="83.6" x14ac:dyDescent="0.4">
@@ -1520,7 +1683,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="66.900000000000006" x14ac:dyDescent="0.4">
@@ -1528,10 +1691,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>36</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="50.15" x14ac:dyDescent="0.4">
@@ -1539,10 +1702,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>38</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
@@ -1550,7 +1713,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
@@ -1563,7 +1726,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="33.450000000000003" x14ac:dyDescent="0.4">
@@ -1571,24 +1734,24 @@
         <v>16</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="33.450000000000003" x14ac:dyDescent="0.4">
       <c r="A11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
@@ -1596,10 +1759,10 @@
         <v>17</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="50.15" x14ac:dyDescent="0.4">
@@ -1607,18 +1770,18 @@
         <v>18</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/SIQ 1.3.xlsx
+++ b/SIQ 1.3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25714" windowHeight="13723" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25714" windowHeight="13723"/>
   </bookViews>
   <sheets>
     <sheet name="Revision_History" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="135">
   <si>
     <t>ID</t>
   </si>
@@ -557,6 +557,9 @@
   </si>
   <si>
     <t>Show a popup message contain restaurants phone number</t>
+  </si>
+  <si>
+    <t>Author</t>
   </si>
 </sst>
 </file>
@@ -1059,10 +1062,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="16.75" x14ac:dyDescent="0.45"/>
@@ -1070,12 +1073,12 @@
     <col min="1" max="1" width="27.69140625" style="14" customWidth="1"/>
     <col min="2" max="2" width="25.69140625" style="14" customWidth="1"/>
     <col min="3" max="3" width="72.53515625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="37" style="12" customWidth="1"/>
-    <col min="5" max="5" width="25.53515625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="18.765625" customWidth="1"/>
+    <col min="5" max="5" width="37" style="12" customWidth="1"/>
     <col min="6" max="16384" width="8.84375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="7" customFormat="1" ht="41.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="41.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>25</v>
       </c>
@@ -1086,10 +1089,13 @@
         <v>27</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="14" t="s">
         <v>46</v>
       </c>
@@ -1103,7 +1109,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="14" t="s">
         <v>46</v>
       </c>
@@ -1114,10 +1120,13 @@
         <v>64</v>
       </c>
       <c r="D3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="14" t="s">
         <v>46</v>
       </c>
@@ -1131,7 +1140,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
@@ -1142,10 +1151,13 @@
         <v>78</v>
       </c>
       <c r="D5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="14" t="s">
         <v>86</v>
       </c>
@@ -1156,10 +1168,13 @@
         <v>90</v>
       </c>
       <c r="D6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="14">
         <v>1.3</v>
       </c>
@@ -1169,8 +1184,11 @@
       <c r="D7" s="12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E7" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="14">
         <v>1.3</v>
       </c>
@@ -1179,6 +1197,9 @@
       </c>
       <c r="D8" s="12" t="s">
         <v>48</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1190,7 +1211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>

--- a/SIQ 1.3.xlsx
+++ b/SIQ 1.3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hossa\Documents\GitHub\Foodies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dina\Documents\GitHub\Foodies\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25714" windowHeight="13723"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25716" windowHeight="13728" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Revision_History" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="143">
   <si>
     <t>ID</t>
   </si>
@@ -560,6 +560,30 @@
   </si>
   <si>
     <t>Author</t>
+  </si>
+  <si>
+    <t>Foodies_SIQ_025</t>
+  </si>
+  <si>
+    <t>if we enter incorrect data or let the field empty what will happen?</t>
+  </si>
+  <si>
+    <t>text message in red color appears next or under the field</t>
+  </si>
+  <si>
+    <t>"Please Enter Valid Data"/Next to Field</t>
+  </si>
+  <si>
+    <t>Foodies_SIQ_026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">search bar exist in all pages or in specific page </t>
+  </si>
+  <si>
+    <t>in home page only</t>
+  </si>
+  <si>
+    <t>Please add in SIQ sheet</t>
   </si>
 </sst>
 </file>
@@ -1064,21 +1088,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="16.75" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.69140625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="25.69140625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="72.53515625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="18.765625" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="72.5546875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" customWidth="1"/>
     <col min="5" max="5" width="37" style="12" customWidth="1"/>
-    <col min="6" max="16384" width="8.84375" style="12"/>
+    <col min="6" max="16384" width="8.88671875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="41.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="41.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>25</v>
       </c>
@@ -1095,7 +1119,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>46</v>
       </c>
@@ -1109,7 +1133,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>46</v>
       </c>
@@ -1126,7 +1150,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>46</v>
       </c>
@@ -1140,7 +1164,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
@@ -1157,7 +1181,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>86</v>
       </c>
@@ -1174,7 +1198,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B7" s="14">
         <v>1.3</v>
       </c>
@@ -1188,7 +1212,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" s="14">
         <v>1.3</v>
       </c>
@@ -1212,24 +1236,24 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.84375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.15234375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="60.15234375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="56.765625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.15234375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.3046875" style="1"/>
-    <col min="7" max="7" width="23.3046875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.69140625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.3046875" style="1"/>
+    <col min="1" max="1" width="20.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="60.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="56.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="1"/>
+    <col min="7" max="7" width="23.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="37.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1246,7 +1270,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="5" customFormat="1" ht="34.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" s="5" customFormat="1" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>91</v>
       </c>
@@ -1263,7 +1287,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>91</v>
       </c>
@@ -1280,7 +1304,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>91</v>
       </c>
@@ -1297,7 +1321,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>91</v>
       </c>
@@ -1314,7 +1338,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>91</v>
       </c>
@@ -1331,7 +1355,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>91</v>
       </c>
@@ -1348,7 +1372,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>91</v>
       </c>
@@ -1365,7 +1389,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>91</v>
       </c>
@@ -1382,7 +1406,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>92</v>
       </c>
@@ -1399,7 +1423,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>92</v>
       </c>
@@ -1416,7 +1440,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>92</v>
       </c>
@@ -1433,7 +1457,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>92</v>
       </c>
@@ -1450,7 +1474,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>92</v>
       </c>
@@ -1467,7 +1491,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>92</v>
       </c>
@@ -1484,7 +1508,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>93</v>
       </c>
@@ -1501,7 +1525,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>94</v>
       </c>
@@ -1518,7 +1542,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>94</v>
       </c>
@@ -1535,7 +1559,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>94</v>
       </c>
@@ -1552,7 +1576,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>91</v>
       </c>
@@ -1566,7 +1590,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>91</v>
       </c>
@@ -1580,7 +1604,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>91</v>
       </c>
@@ -1594,7 +1618,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>91</v>
       </c>
@@ -1608,7 +1632,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>92</v>
       </c>
@@ -1622,7 +1646,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>91</v>
       </c>
@@ -1636,7 +1660,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
     </row>
@@ -1648,22 +1672,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="16.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.3046875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="54.3046875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="59.3828125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="36.53515625" style="9" customWidth="1"/>
-    <col min="5" max="16384" width="8.84375" style="9"/>
+    <col min="1" max="1" width="27.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="54.33203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="59.33203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="36.5546875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="7" customFormat="1" ht="41.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="41.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
@@ -1677,7 +1702,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -1688,7 +1713,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="50.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="52.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -1699,7 +1724,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="83.6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="104.4" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -1707,7 +1732,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="66.900000000000006" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="87" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
@@ -1718,7 +1743,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="50.15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
@@ -1729,7 +1754,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
@@ -1737,12 +1762,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
@@ -1750,7 +1775,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="33.450000000000003" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>16</v>
       </c>
@@ -1761,7 +1786,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="33.450000000000003" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>43</v>
       </c>
@@ -1775,7 +1800,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>17</v>
       </c>
@@ -1786,7 +1811,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="50.15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>18</v>
       </c>
@@ -1797,12 +1822,46 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="11" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="11" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/SIQ 1.3.xlsx
+++ b/SIQ 1.3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dina\Documents\GitHub\Foodies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hossa\Documents\GitHub\Foodies\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25716" windowHeight="13728" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25714" windowHeight="13731" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Revision_History" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="145">
   <si>
     <t>ID</t>
   </si>
@@ -375,9 +375,6 @@
     <t>proposed Solutions</t>
   </si>
   <si>
-    <t>Answer</t>
-  </si>
-  <si>
     <t xml:space="preserve">Review Document , modify some gramatically and spelling mistakes  </t>
   </si>
   <si>
@@ -532,10 +529,6 @@
   </si>
   <si>
     <t>What is the  main content for user account page  ? Where I can find it ?</t>
-  </si>
-  <si>
-    <t>UserID 
-loyality points</t>
   </si>
   <si>
     <t>Search bar 
@@ -584,6 +577,21 @@
   </si>
   <si>
     <t>Please add in SIQ sheet</t>
+  </si>
+  <si>
+    <t>Picture of user
+UserID 
+loyality points
+All users info entered in Regestration</t>
+  </si>
+  <si>
+    <t>If we enter incorrect data or let the field empty what will happen?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search bar exist in all pages or in specific page </t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -1086,23 +1094,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="16.75" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="72.5546875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="18.77734375" customWidth="1"/>
+    <col min="1" max="1" width="27.69140625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="25.69140625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="72.53515625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="18.765625" customWidth="1"/>
     <col min="5" max="5" width="37" style="12" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="12"/>
+    <col min="6" max="16384" width="8.84375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="41.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="41.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>25</v>
       </c>
@@ -1113,13 +1121,13 @@
         <v>27</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="14" t="s">
         <v>46</v>
       </c>
@@ -1133,7 +1141,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="14" t="s">
         <v>46</v>
       </c>
@@ -1150,7 +1158,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="14" t="s">
         <v>46</v>
       </c>
@@ -1164,7 +1172,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
@@ -1172,7 +1180,7 @@
         <v>1.2</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>48</v>
@@ -1181,15 +1189,15 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" s="14">
         <v>1.2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>48</v>
@@ -1198,12 +1206,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="14">
         <v>1.3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>48</v>
@@ -1212,12 +1220,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="14">
         <v>1.3</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>48</v>
@@ -1225,6 +1233,9 @@
       <c r="E8" s="12" t="s">
         <v>65</v>
       </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D9" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1233,27 +1244,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.3046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="60.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="56.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" style="1"/>
-    <col min="7" max="7" width="23.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="20.84375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.07421875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="60.07421875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="56.765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.07421875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.3046875" style="1"/>
+    <col min="7" max="7" width="23.3046875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.69140625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.3046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="37.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="37.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1267,15 +1278,15 @@
         <v>76</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="5" customFormat="1" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="5" customFormat="1" ht="34.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>50</v>
@@ -1284,15 +1295,15 @@
         <v>51</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
@@ -1301,15 +1312,15 @@
         <v>62</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -1318,15 +1329,15 @@
         <v>52</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>53</v>
@@ -1335,15 +1346,15 @@
         <v>54</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>37</v>
@@ -1352,15 +1363,15 @@
         <v>55</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>56</v>
@@ -1369,15 +1380,15 @@
         <v>66</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>68</v>
@@ -1386,15 +1397,15 @@
         <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>57</v>
@@ -1403,15 +1414,15 @@
         <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>14</v>
@@ -1420,15 +1431,15 @@
         <v>15</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>69</v>
@@ -1437,15 +1448,15 @@
         <v>58</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>70</v>
@@ -1454,32 +1465,32 @@
         <v>71</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>72</v>
@@ -1488,15 +1499,15 @@
         <v>73</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>74</v>
@@ -1505,15 +1516,15 @@
         <v>75</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>20</v>
@@ -1522,15 +1533,15 @@
         <v>59</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>60</v>
@@ -1539,15 +1550,15 @@
         <v>22</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>23</v>
@@ -1556,15 +1567,15 @@
         <v>67</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>24</v>
@@ -1573,96 +1584,144 @@
         <v>61</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A23" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="B24" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="11" customFormat="1" ht="16.75" x14ac:dyDescent="0.4">
+      <c r="A26" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
+      <c r="B27" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1675,20 +1734,20 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="16.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="54.33203125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="59.33203125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="36.5546875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="19.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="27.3046875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="54.3046875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="59.3046875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="36.53515625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="19.84375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.84375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="41.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="41.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
@@ -1702,7 +1761,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="17.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -1713,7 +1772,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="52.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="50.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -1724,7 +1783,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="104.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="83.6" x14ac:dyDescent="0.4">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -1732,7 +1791,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="87" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="66.900000000000006" x14ac:dyDescent="0.4">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
@@ -1743,7 +1802,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="52.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="50.15" x14ac:dyDescent="0.4">
       <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
@@ -1754,7 +1813,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
@@ -1762,12 +1821,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
@@ -1775,18 +1834,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="33.450000000000003" x14ac:dyDescent="0.4">
       <c r="A10" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="33.450000000000003" x14ac:dyDescent="0.4">
       <c r="A11" s="8" t="s">
         <v>43</v>
       </c>
@@ -1794,74 +1853,74 @@
         <v>70</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="52.2" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="50.15" x14ac:dyDescent="0.4">
       <c r="A13" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="11" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="11" customFormat="1" ht="33.450000000000003" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="D15" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="E15" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="11" customFormat="1" ht="33.450000000000003" x14ac:dyDescent="0.4">
+      <c r="A16" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="B16" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="11" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+      <c r="C16" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="D16" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>140</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>142</v>
       </c>
     </row>
   </sheetData>
